--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.164278333333334</v>
+        <v>4.055887666666667</v>
       </c>
       <c r="H2">
-        <v>3.492835</v>
+        <v>12.167663</v>
       </c>
       <c r="I2">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="J2">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.351132</v>
+        <v>211.980367</v>
       </c>
       <c r="N2">
-        <v>187.053396</v>
+        <v>635.9411009999999</v>
       </c>
       <c r="O2">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="P2">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="Q2">
-        <v>72.59407204640668</v>
+        <v>859.7685560907736</v>
       </c>
       <c r="R2">
-        <v>653.34664841766</v>
+        <v>7737.917004816963</v>
       </c>
       <c r="S2">
-        <v>0.1991828381492249</v>
+        <v>0.4708650006017444</v>
       </c>
       <c r="T2">
-        <v>0.1991828381492249</v>
+        <v>0.4708650006017444</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.164278333333334</v>
+        <v>4.055887666666667</v>
       </c>
       <c r="H3">
-        <v>3.492835</v>
+        <v>12.167663</v>
       </c>
       <c r="I3">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="J3">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.568811</v>
       </c>
       <c r="O3">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159323</v>
       </c>
       <c r="P3">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159324</v>
       </c>
       <c r="Q3">
-        <v>0.9969369965761113</v>
+        <v>3.472936284299223</v>
       </c>
       <c r="R3">
-        <v>8.972432969185002</v>
+        <v>31.256426558693</v>
       </c>
       <c r="S3">
-        <v>0.002735385064321145</v>
+        <v>0.001902005061724683</v>
       </c>
       <c r="T3">
-        <v>0.002735385064321146</v>
+        <v>0.001902005061724683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.164278333333334</v>
+        <v>4.055887666666667</v>
       </c>
       <c r="H4">
-        <v>3.492835</v>
+        <v>12.167663</v>
       </c>
       <c r="I4">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="J4">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.819886</v>
       </c>
       <c r="O4">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="P4">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="Q4">
-        <v>1.870562946312223</v>
+        <v>6.516305394046445</v>
       </c>
       <c r="R4">
-        <v>16.83506651681</v>
+        <v>58.64674854641801</v>
       </c>
       <c r="S4">
-        <v>0.005132430597708662</v>
+        <v>0.003568751289579473</v>
       </c>
       <c r="T4">
-        <v>0.005132430597708662</v>
+        <v>0.003568751289579473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>11.659381</v>
       </c>
       <c r="I5">
-        <v>0.6911527338349851</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="J5">
-        <v>0.6911527338349852</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.351132</v>
+        <v>211.980367</v>
       </c>
       <c r="N5">
-        <v>187.053396</v>
+        <v>635.9411009999999</v>
       </c>
       <c r="O5">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="P5">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="Q5">
-        <v>242.3252012564307</v>
+        <v>823.8532877909422</v>
       </c>
       <c r="R5">
-        <v>2180.926811307876</v>
+        <v>7414.67959011848</v>
       </c>
       <c r="S5">
-        <v>0.664889294410743</v>
+        <v>0.4511954712734045</v>
       </c>
       <c r="T5">
-        <v>0.6648892944107431</v>
+        <v>0.4511954712734045</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>11.659381</v>
       </c>
       <c r="I6">
-        <v>0.6911527338349851</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="J6">
-        <v>0.6911527338349852</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.568811</v>
       </c>
       <c r="O6">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159323</v>
       </c>
       <c r="P6">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159324</v>
       </c>
       <c r="Q6">
         <v>3.327860685110111</v>
@@ -818,10 +818,10 @@
         <v>29.950746165991</v>
       </c>
       <c r="S6">
-        <v>0.009130948540835663</v>
+        <v>0.001822552258274789</v>
       </c>
       <c r="T6">
-        <v>0.009130948540835663</v>
+        <v>0.001822552258274789</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>11.659381</v>
       </c>
       <c r="I7">
-        <v>0.6911527338349851</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="J7">
-        <v>0.6911527338349852</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.819886</v>
       </c>
       <c r="O7">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="P7">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="Q7">
         <v>6.244098583396222</v>
@@ -880,10 +880,10 @@
         <v>56.196887250566</v>
       </c>
       <c r="S7">
-        <v>0.01713249088340646</v>
+        <v>0.003419673192744441</v>
       </c>
       <c r="T7">
-        <v>0.01713249088340646</v>
+        <v>0.003419673192744441</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5724183333333333</v>
+        <v>0.5724183333333334</v>
       </c>
       <c r="H8">
         <v>1.717255</v>
       </c>
       <c r="I8">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252778</v>
       </c>
       <c r="J8">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252777</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>62.351132</v>
+        <v>211.980367</v>
       </c>
       <c r="N8">
-        <v>187.053396</v>
+        <v>635.9411009999999</v>
       </c>
       <c r="O8">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="P8">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="Q8">
-        <v>35.69093106088666</v>
+        <v>121.3414483775283</v>
       </c>
       <c r="R8">
-        <v>321.21837954798</v>
+        <v>1092.073035397755</v>
       </c>
       <c r="S8">
-        <v>0.09792839476412343</v>
+        <v>0.06645444376692126</v>
       </c>
       <c r="T8">
-        <v>0.09792839476412345</v>
+        <v>0.06645444376692126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5724183333333333</v>
+        <v>0.5724183333333334</v>
       </c>
       <c r="H9">
         <v>1.717255</v>
       </c>
       <c r="I9">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252778</v>
       </c>
       <c r="J9">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252777</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.568811</v>
       </c>
       <c r="O9">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159323</v>
       </c>
       <c r="P9">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159324</v>
       </c>
       <c r="Q9">
-        <v>0.4901448370894444</v>
+        <v>0.4901448370894445</v>
       </c>
       <c r="R9">
         <v>4.411303533805</v>
       </c>
       <c r="S9">
-        <v>0.001344854159624147</v>
+        <v>0.000268435089159851</v>
       </c>
       <c r="T9">
-        <v>0.001344854159624147</v>
+        <v>0.000268435089159851</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5724183333333333</v>
+        <v>0.5724183333333334</v>
       </c>
       <c r="H10">
         <v>1.717255</v>
       </c>
       <c r="I10">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252778</v>
       </c>
       <c r="J10">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252777</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>4.819886</v>
       </c>
       <c r="O10">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="P10">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="Q10">
-        <v>0.9196637036588888</v>
+        <v>0.9196637036588889</v>
       </c>
       <c r="R10">
         <v>8.27697333293</v>
       </c>
       <c r="S10">
-        <v>0.002523363430012636</v>
+        <v>0.0005036674664466626</v>
       </c>
       <c r="T10">
-        <v>0.002523363430012636</v>
+        <v>0.0005036674664466625</v>
       </c>
     </row>
   </sheetData>
